--- a/BackLog/Backlog-Gestion-Cagnottes.xlsx
+++ b/BackLog/Backlog-Gestion-Cagnottes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -175,8 +175,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,30 +215,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,7 +287,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -300,7 +329,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,10 +361,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,7 +395,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,26 +570,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="96.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -571,292 +599,318 @@
       <c r="D1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="10">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="30">
       <c r="A3" s="7"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="10">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="7"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="10">
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="30">
       <c r="A5" s="7"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="10">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="30">
       <c r="A6" s="7"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="10">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="7"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="10">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="7"/>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="10">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="30">
       <c r="A9" s="7"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="10">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="30">
       <c r="A10" s="7"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="10">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5">
       <c r="A11" s="7"/>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="10">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="10">
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="30">
       <c r="A13" s="7"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="10">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="7"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="10">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="30">
       <c r="A15" s="7"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="10">
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="30">
       <c r="A16" s="7"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="10">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="30">
       <c r="A17" s="7"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="7"/>
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="10">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" s="7"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="10">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="30">
       <c r="A19" s="7"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="10">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="30">
       <c r="A20" s="7"/>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="7"/>
+      <c r="C20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="10">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30">
       <c r="A21" s="7"/>
-      <c r="C21" s="4" t="s">
+      <c r="B21" s="7"/>
+      <c r="C21" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="10">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="7"/>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="7"/>
+      <c r="C22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="10">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="7"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="10">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="7"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="7"/>
+      <c r="C24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="10">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B24"/>
+    <mergeCell ref="A2:A24"/>
+  </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
